--- a/www/example.xlsx
+++ b/www/example.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t xml:space="preserve">chrom</t>
+    <t xml:space="preserve">chr</t>
   </si>
   <si>
     <t xml:space="preserve">start</t>
@@ -118,8 +118,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -253,61 +257,61 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="31.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="31.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="2" t="n">
         <v>100</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>4000</v>
       </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="2" t="n">
         <v>5000</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="2" t="n">
         <v>900</v>
       </c>
     </row>
